--- a/scene_cat_exp_2023.2/input_files/4_scenecat_categorization_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/4_scenecat_categorization_bedrooms_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,44 +482,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_q577a.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>61.77272727272727</v>
+        <v>81.26470588235294</v>
       </c>
       <c r="N2">
-        <v>38.79545454545455</v>
+        <v>59.08823529411764</v>
       </c>
       <c r="O2">
-        <v>50.28409090909091</v>
+        <v>70.17647058823529</v>
       </c>
       <c r="P2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_qgbyn.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>82.35897435897436</v>
+        <v>65.08108108108108</v>
       </c>
       <c r="N3">
-        <v>65.53846153846153</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="O3">
-        <v>73.94871794871796</v>
+        <v>52.5945945945946</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,44 +618,44 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_uegbb.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>50.58333333333334</v>
+        <v>78.80952380952381</v>
       </c>
       <c r="N4">
-        <v>32.11111111111111</v>
+        <v>61.52380952380953</v>
       </c>
       <c r="O4">
-        <v>41.34722222222223</v>
+        <v>70.16666666666667</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,29 +701,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>40.02777777777778</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N5">
-        <v>20.88888888888889</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O5">
-        <v>30.45833333333334</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,29 +769,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_oou46.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>85.08108108108108</v>
+        <v>75.70270270270271</v>
       </c>
       <c r="N6">
-        <v>66.16216216216216</v>
+        <v>54.86486486486486</v>
       </c>
       <c r="O6">
-        <v>75.62162162162161</v>
+        <v>65.28378378378379</v>
       </c>
       <c r="P6">
         <v>37</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -822,44 +822,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_h0hbk.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>86.80952380952381</v>
+        <v>66.8</v>
       </c>
       <c r="N7">
-        <v>69.19047619047619</v>
+        <v>42.08</v>
       </c>
       <c r="O7">
-        <v>78</v>
+        <v>54.44</v>
       </c>
       <c r="P7">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -890,44 +890,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_2b8fp.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>71.74418604651163</v>
+        <v>73.89189189189189</v>
       </c>
       <c r="N8">
-        <v>48.44186046511628</v>
+        <v>51.45945945945946</v>
       </c>
       <c r="O8">
-        <v>60.09302325581395</v>
+        <v>62.67567567567568</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -958,44 +958,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_uegbb.png</t>
+          <t>stimuli/img_rvssl.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>78.80952380952381</v>
+        <v>74.25</v>
       </c>
       <c r="N9">
-        <v>61.52380952380953</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O9">
-        <v>70.16666666666667</v>
+        <v>64.29166666666667</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1041,29 +1041,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_le8uf.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>77.11428571428571</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="N10">
-        <v>58.42857142857143</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="O10">
-        <v>67.77142857142857</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="P10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1109,29 +1109,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>75.70270270270271</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N11">
-        <v>54.86486486486486</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O11">
-        <v>65.28378378378379</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1177,29 +1177,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>69.34210526315789</v>
+        <v>65.25</v>
       </c>
       <c r="N12">
-        <v>47.02631578947368</v>
+        <v>44.8</v>
       </c>
       <c r="O12">
-        <v>58.18421052631579</v>
+        <v>55.025</v>
       </c>
       <c r="P12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1245,29 +1245,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_wyctg.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>65.08108108108108</v>
+        <v>33.44736842105263</v>
       </c>
       <c r="N13">
-        <v>40.10810810810811</v>
+        <v>11.39473684210526</v>
       </c>
       <c r="O13">
-        <v>52.5945945945946</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_uxxo0.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>88.18918918918919</v>
+        <v>71.74418604651163</v>
       </c>
       <c r="N14">
-        <v>74.05405405405405</v>
+        <v>48.44186046511628</v>
       </c>
       <c r="O14">
-        <v>81.12162162162161</v>
+        <v>60.09302325581395</v>
       </c>
       <c r="P14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1366,44 +1366,44 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_a220l.png</t>
+          <t>stimuli/img_t2ioc.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>79.45945945945945</v>
+        <v>88.18918918918919</v>
       </c>
       <c r="N15">
-        <v>60.97297297297298</v>
+        <v>74.05405405405405</v>
       </c>
       <c r="O15">
-        <v>70.21621621621621</v>
+        <v>81.12162162162161</v>
       </c>
       <c r="P15">
         <v>37</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1434,44 +1434,44 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_q577a.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>81.26470588235294</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N16">
-        <v>59.08823529411764</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O16">
-        <v>70.17647058823529</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,44 +1502,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_pbsj1.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>12.88888888888889</v>
+        <v>73.88636363636364</v>
       </c>
       <c r="N17">
-        <v>9.222222222222221</v>
+        <v>51.52272727272727</v>
       </c>
       <c r="O17">
-        <v>11.05555555555556</v>
+        <v>62.70454545454545</v>
       </c>
       <c r="P17">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1585,29 +1585,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_5m6x4.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>80.23076923076923</v>
+        <v>92</v>
       </c>
       <c r="N18">
-        <v>58.41025641025641</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O18">
-        <v>69.32051282051282</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1653,29 +1653,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_h0hbk.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>74.25</v>
+        <v>86.80952380952381</v>
       </c>
       <c r="N19">
-        <v>54.33333333333334</v>
+        <v>69.19047619047619</v>
       </c>
       <c r="O19">
-        <v>64.29166666666667</v>
+        <v>78</v>
       </c>
       <c r="P19">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1706,44 +1706,44 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_ybbmx.png</t>
+          <t>stimuli/img_a220l.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>55.24324324324324</v>
+        <v>79.45945945945945</v>
       </c>
       <c r="N20">
-        <v>36.75675675675676</v>
+        <v>60.97297297297298</v>
       </c>
       <c r="O20">
-        <v>46</v>
+        <v>70.21621621621621</v>
       </c>
       <c r="P20">
         <v>37</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1774,44 +1774,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_2b8fp.png</t>
+          <t>stimuli/img_2js6m.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>73.89189189189189</v>
+        <v>40.02777777777778</v>
       </c>
       <c r="N21">
-        <v>51.45945945945946</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="O21">
-        <v>62.67567567567568</v>
+        <v>30.45833333333334</v>
       </c>
       <c r="P21">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1857,29 +1857,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>33.44736842105263</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N22">
-        <v>11.39473684210526</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O22">
-        <v>22.42105263157895</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1925,29 +1925,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_71mhq.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>65.25</v>
+        <v>69.34210526315789</v>
       </c>
       <c r="N23">
-        <v>44.8</v>
+        <v>47.02631578947368</v>
       </c>
       <c r="O23">
-        <v>55.025</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="P23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>92</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N24">
-        <v>78.16216216216216</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O24">
-        <v>85.08108108108108</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2046,44 +2046,44 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_ybbmx.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>66.8</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="N25">
-        <v>42.08</v>
+        <v>36.75675675675676</v>
       </c>
       <c r="O25">
-        <v>54.44</v>
+        <v>46</v>
       </c>
       <c r="P25">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2129,29 +2129,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_5m6x4.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>80.75</v>
+        <v>80.23076923076923</v>
       </c>
       <c r="N26">
-        <v>61.475</v>
+        <v>58.41025641025641</v>
       </c>
       <c r="O26">
-        <v>71.1125</v>
+        <v>69.32051282051282</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2182,44 +2182,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>73.88636363636364</v>
+        <v>80.75</v>
       </c>
       <c r="N27">
-        <v>51.52272727272727</v>
+        <v>61.475</v>
       </c>
       <c r="O27">
-        <v>62.70454545454545</v>
+        <v>71.1125</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/4_scenecat_categorization_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/4_scenecat_categorization_bedrooms_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_q577a.png</t>
+          <t>stimuli/img_2b8fp.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>81.26470588235294</v>
+        <v>73.89189189189189</v>
       </c>
       <c r="N2">
-        <v>59.08823529411764</v>
+        <v>51.45945945945946</v>
       </c>
       <c r="O2">
-        <v>70.17647058823529</v>
+        <v>62.67567567567568</v>
       </c>
       <c r="P2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_x0u5z.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>65.08108108108108</v>
+        <v>92</v>
       </c>
       <c r="N3">
-        <v>40.10810810810811</v>
+        <v>78.16216216216216</v>
       </c>
       <c r="O3">
-        <v>52.5945945945946</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="P3">
         <v>37</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,44 +618,44 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_uegbb.png</t>
+          <t>stimuli/img_wyctg.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>78.80952380952381</v>
+        <v>33.44736842105263</v>
       </c>
       <c r="N4">
-        <v>61.52380952380953</v>
+        <v>11.39473684210526</v>
       </c>
       <c r="O4">
-        <v>70.16666666666667</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="P4">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -686,44 +686,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_th7xh.png</t>
+          <t>stimuli/img_x4bln.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>82.35897435897436</v>
+        <v>76.34042553191489</v>
       </c>
       <c r="N5">
-        <v>65.53846153846153</v>
+        <v>59.51063829787234</v>
       </c>
       <c r="O5">
-        <v>73.94871794871796</v>
+        <v>67.92553191489361</v>
       </c>
       <c r="P5">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,35 +754,35 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_di49w.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>75.70270270270271</v>
+        <v>73.03125</v>
       </c>
       <c r="N6">
-        <v>54.86486486486486</v>
+        <v>52.25</v>
       </c>
       <c r="O6">
-        <v>65.28378378378379</v>
+        <v>62.640625</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -822,44 +822,44 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>66.8</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N7">
-        <v>42.08</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O7">
-        <v>54.44</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -890,44 +890,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_2b8fp.png</t>
+          <t>stimuli/img_qgbyn.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>73.89189189189189</v>
+        <v>65.08108108108108</v>
       </c>
       <c r="N8">
-        <v>51.45945945945946</v>
+        <v>40.10810810810811</v>
       </c>
       <c r="O8">
-        <v>62.67567567567568</v>
+        <v>52.5945945945946</v>
       </c>
       <c r="P8">
         <v>37</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -973,29 +973,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>74.25</v>
+        <v>65.25</v>
       </c>
       <c r="N9">
-        <v>54.33333333333334</v>
+        <v>44.8</v>
       </c>
       <c r="O9">
-        <v>64.29166666666667</v>
+        <v>55.025</v>
       </c>
       <c r="P9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1041,29 +1041,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_71mhq.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>12.88888888888889</v>
+        <v>69.34210526315789</v>
       </c>
       <c r="N10">
-        <v>9.222222222222221</v>
+        <v>47.02631578947368</v>
       </c>
       <c r="O10">
-        <v>11.05555555555556</v>
+        <v>58.18421052631579</v>
       </c>
       <c r="P10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1109,20 +1109,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_v8dra.png</t>
+          <t>stimuli/img_ybbmx.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>61.77272727272727</v>
+        <v>55.24324324324324</v>
       </c>
       <c r="N11">
-        <v>38.79545454545455</v>
+        <v>36.75675675675676</v>
       </c>
       <c r="O11">
-        <v>50.28409090909091</v>
+        <v>46</v>
       </c>
       <c r="P11">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1177,29 +1177,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_bj2gr.png</t>
+          <t>stimuli/img_5m6x4.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>65.25</v>
+        <v>80.23076923076923</v>
       </c>
       <c r="N12">
-        <v>44.8</v>
+        <v>58.41025641025641</v>
       </c>
       <c r="O12">
-        <v>55.025</v>
+        <v>69.32051282051282</v>
       </c>
       <c r="P12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1245,20 +1245,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_le8uf.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>33.44736842105263</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="N13">
-        <v>11.39473684210526</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="O13">
-        <v>22.42105263157895</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="P13">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_a9acb.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>71.74418604651163</v>
+        <v>77.11428571428571</v>
       </c>
       <c r="N14">
-        <v>48.44186046511628</v>
+        <v>58.42857142857143</v>
       </c>
       <c r="O14">
-        <v>60.09302325581395</v>
+        <v>67.77142857142857</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1381,29 +1381,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_2js6m.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>88.18918918918919</v>
+        <v>40.02777777777778</v>
       </c>
       <c r="N15">
-        <v>74.05405405405405</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="O15">
-        <v>81.12162162162161</v>
+        <v>30.45833333333334</v>
       </c>
       <c r="P15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1449,29 +1449,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>77.11428571428571</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N16">
-        <v>58.42857142857143</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O16">
-        <v>67.77142857142857</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>73.88636363636364</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N17">
-        <v>51.52272727272727</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O17">
-        <v>62.70454545454545</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P17">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1585,29 +1585,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N18">
-        <v>78.16216216216216</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O18">
-        <v>85.08108108108108</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1653,29 +1653,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_h0hbk.png</t>
+          <t>stimuli/img_rvssl.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>86.80952380952381</v>
+        <v>74.25</v>
       </c>
       <c r="N19">
-        <v>69.19047619047619</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O19">
-        <v>78</v>
+        <v>64.29166666666667</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1721,29 +1721,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_a220l.png</t>
+          <t>stimuli/img_z4jxm.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>79.45945945945945</v>
+        <v>88.30952380952381</v>
       </c>
       <c r="N20">
-        <v>60.97297297297298</v>
+        <v>72.64285714285714</v>
       </c>
       <c r="O20">
-        <v>70.21621621621621</v>
+        <v>80.47619047619048</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1789,29 +1789,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>40.02777777777778</v>
+        <v>80.75</v>
       </c>
       <c r="N21">
-        <v>20.88888888888889</v>
+        <v>61.475</v>
       </c>
       <c r="O21">
-        <v>30.45833333333334</v>
+        <v>71.1125</v>
       </c>
       <c r="P21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1857,20 +1857,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_2pk6v.png</t>
+          <t>stimuli/img_h0hbk.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>85.08108108108108</v>
+        <v>86.80952380952381</v>
       </c>
       <c r="N22">
-        <v>66.16216216216216</v>
+        <v>69.19047619047619</v>
       </c>
       <c r="O22">
-        <v>75.62162162162161</v>
+        <v>78</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1925,20 +1925,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_71mhq.png</t>
+          <t>stimuli/img_uxxo0.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>69.34210526315789</v>
+        <v>71.74418604651163</v>
       </c>
       <c r="N23">
-        <v>47.02631578947368</v>
+        <v>48.44186046511628</v>
       </c>
       <c r="O23">
-        <v>58.18421052631579</v>
+        <v>60.09302325581395</v>
       </c>
       <c r="P23">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_okvvw.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>50.58333333333334</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N24">
-        <v>32.11111111111111</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O24">
-        <v>41.34722222222223</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2061,20 +2061,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_ybbmx.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>55.24324324324324</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N25">
-        <v>36.75675675675676</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O25">
-        <v>46</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P25">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2114,44 +2114,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_5m6x4.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>80.23076923076923</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N26">
-        <v>58.41025641025641</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O26">
-        <v>69.32051282051282</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P26">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2197,29 +2197,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_fqgem.png</t>
+          <t>stimuli/img_oou46.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>80.75</v>
+        <v>75.70270270270271</v>
       </c>
       <c r="N27">
-        <v>61.475</v>
+        <v>54.86486486486486</v>
       </c>
       <c r="O27">
-        <v>71.1125</v>
+        <v>65.28378378378379</v>
       </c>
       <c r="P27">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
